--- a/My HDAC2/data_for_modeling/raw_data/v2/Original Data - v2 - Merge.xlsx
+++ b/My HDAC2/data_for_modeling/raw_data/v2/Original Data - v2 - Merge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\MachineLearning\JupyterNotebook\Pharmacy\My HDAC2\data_for_modeling\raw_data\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07CDDA6-B983-41E5-BF3B-40A650B3FF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24A09E5-9555-47B6-8326-A043AC2F3A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original_data" sheetId="1" r:id="rId1"/>
@@ -13602,15 +13602,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13954,8 +13951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14169,7 +14166,7 @@
       <c r="B15" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>9.9700000000000006</v>
       </c>
       <c r="D15" s="1" t="s">
